--- a/user_stories/04_page_de_chat/Afficher_l'historique_des_conversations.xlsx
+++ b/user_stories/04_page_de_chat/Afficher_l'historique_des_conversations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbochard/Code/Openclassrooms/Projet/P03_Learnathome/user_stories/04_page_de_chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16EFC1B9-BA52-194C-B6CF-374E20CD67C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D84A11-CDEE-1740-BD90-04302571A962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{C0A7CACB-CD45-3E43-93E6-D1FA4A61C163}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="33600" windowHeight="21000" xr2:uid="{232403D8-ED36-A845-B8E4-DA96C5D18E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>En tant que</t>
   </si>
   <si>
-    <t>utilisateur connecté et sur la page de chat</t>
+    <t>utilisateur connecté</t>
   </si>
   <si>
     <t>Je souhaite</t>
@@ -45,31 +45,31 @@
     <t>Étant donné que</t>
   </si>
   <si>
+    <t>Quand je</t>
+  </si>
+  <si>
+    <t>Alors</t>
+  </si>
+  <si>
+    <t>Afficher l'historique des conversations</t>
+  </si>
+  <si>
+    <t>afficher l'historique des conversations d'un contact</t>
+  </si>
+  <si>
+    <t>de voir les messages que j'ai envoyé et reçu de ce contact</t>
+  </si>
+  <si>
+    <t>L'utilisateur affiche l'historique des conversations d'un de ses contacts</t>
+  </si>
+  <si>
+    <t>je clique sur le un bouton de chat</t>
+  </si>
+  <si>
+    <t>la page de chat s'affiche et je peux voir les messages déjà envoyés</t>
+  </si>
+  <si>
     <t>je suis un utilisateur connecté et que je suis sur la page de chat</t>
-  </si>
-  <si>
-    <t>Quand je</t>
-  </si>
-  <si>
-    <t>clique sur un boutton</t>
-  </si>
-  <si>
-    <t>Alors</t>
-  </si>
-  <si>
-    <t>Afficher l'historique des conversations</t>
-  </si>
-  <si>
-    <t>afficher l'historique des conversations</t>
-  </si>
-  <si>
-    <t>L'utilisateur affiche l'historique des conversations d'un de ses utilisateurs</t>
-  </si>
-  <si>
-    <t>de voir les messages que j'ai envoyé et reçu d'un de mes contacts</t>
-  </si>
-  <si>
-    <t>je peux affiche l'historique des conversations d'un de mes contacts</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -220,6 +220,32 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
@@ -241,43 +267,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06140EE0-719B-BA48-8F6C-95E4AED5EDC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57F1C99-BAAF-7143-BFCF-E72AE149A8A5}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,70 +638,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="8" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
